--- a/natmiOut/OldD2/LR-pairs_lrc2p/Ang-Plxnb2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Ang-Plxnb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>M2</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.6593638358045</v>
+        <v>12.185309</v>
       </c>
       <c r="H2">
-        <v>11.6593638358045</v>
+        <v>36.555927</v>
       </c>
       <c r="I2">
-        <v>0.1637183452534694</v>
+        <v>0.1639811691142349</v>
       </c>
       <c r="J2">
-        <v>0.1637183452534694</v>
+        <v>0.1651175572641556</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.3900529084358</v>
+        <v>15.0074085</v>
       </c>
       <c r="N2">
-        <v>13.3900529084358</v>
+        <v>30.014817</v>
       </c>
       <c r="O2">
-        <v>0.06436690057170613</v>
+        <v>0.07002973299615803</v>
       </c>
       <c r="P2">
-        <v>0.06436690057170613</v>
+        <v>0.04985873736734435</v>
       </c>
       <c r="Q2">
-        <v>156.1194986401252</v>
+        <v>182.8699098617265</v>
       </c>
       <c r="R2">
-        <v>156.1194986401252</v>
+        <v>1097.219459170359</v>
       </c>
       <c r="S2">
-        <v>0.01053804245069432</v>
+        <v>0.01148355748946771</v>
       </c>
       <c r="T2">
-        <v>0.01053804245069432</v>
+        <v>0.008232552922370974</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.6593638358045</v>
+        <v>12.185309</v>
       </c>
       <c r="H3">
-        <v>11.6593638358045</v>
+        <v>36.555927</v>
       </c>
       <c r="I3">
-        <v>0.1637183452534694</v>
+        <v>0.1639811691142349</v>
       </c>
       <c r="J3">
-        <v>0.1637183452534694</v>
+        <v>0.1651175572641556</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>29.0642472037446</v>
+        <v>30.578114</v>
       </c>
       <c r="N3">
-        <v>29.0642472037446</v>
+        <v>91.734342</v>
       </c>
       <c r="O3">
-        <v>0.1397138250870031</v>
+        <v>0.1426880036580654</v>
       </c>
       <c r="P3">
-        <v>0.1397138250870031</v>
+        <v>0.1523833533732405</v>
       </c>
       <c r="Q3">
-        <v>338.8706327622219</v>
+        <v>372.6037677272259</v>
       </c>
       <c r="R3">
-        <v>338.8706327622219</v>
+        <v>3353.433909545034</v>
       </c>
       <c r="S3">
-        <v>0.02287371625227681</v>
+        <v>0.0233981456584258</v>
       </c>
       <c r="T3">
-        <v>0.02287371625227681</v>
+        <v>0.02516116707671009</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.6593638358045</v>
+        <v>12.185309</v>
       </c>
       <c r="H4">
-        <v>11.6593638358045</v>
+        <v>36.555927</v>
       </c>
       <c r="I4">
-        <v>0.1637183452534694</v>
+        <v>0.1639811691142349</v>
       </c>
       <c r="J4">
-        <v>0.1637183452534694</v>
+        <v>0.1651175572641556</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>60.7305029151054</v>
+        <v>62.35535266666667</v>
       </c>
       <c r="N4">
-        <v>60.7305029151054</v>
+        <v>187.066058</v>
       </c>
       <c r="O4">
-        <v>0.2919356831176961</v>
+        <v>0.2909715357003801</v>
       </c>
       <c r="P4">
-        <v>0.2919356831176961</v>
+        <v>0.3107424395146705</v>
       </c>
       <c r="Q4">
-        <v>708.0790294185996</v>
+        <v>759.8192400473073</v>
       </c>
       <c r="R4">
-        <v>708.0790294185996</v>
+        <v>6838.373160425765</v>
       </c>
       <c r="S4">
-        <v>0.04779522696047039</v>
+        <v>0.04771385260311268</v>
       </c>
       <c r="T4">
-        <v>0.04779522696047039</v>
+        <v>0.05130903255096701</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.6593638358045</v>
+        <v>12.185309</v>
       </c>
       <c r="H5">
-        <v>11.6593638358045</v>
+        <v>36.555927</v>
       </c>
       <c r="I5">
-        <v>0.1637183452534694</v>
+        <v>0.1639811691142349</v>
       </c>
       <c r="J5">
-        <v>0.1637183452534694</v>
+        <v>0.1651175572641556</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>70.3542313208229</v>
+        <v>71.521033</v>
       </c>
       <c r="N5">
-        <v>70.3542313208229</v>
+        <v>214.563099</v>
       </c>
       <c r="O5">
-        <v>0.3381976040866316</v>
+        <v>0.3337417545873698</v>
       </c>
       <c r="P5">
-        <v>0.3381976040866316</v>
+        <v>0.3564188048111206</v>
       </c>
       <c r="Q5">
-        <v>820.2855803578268</v>
+        <v>871.505887104197</v>
       </c>
       <c r="R5">
-        <v>820.2855803578268</v>
+        <v>7843.552983937772</v>
       </c>
       <c r="S5">
-        <v>0.0553691521097513</v>
+        <v>0.05472736309947299</v>
       </c>
       <c r="T5">
-        <v>0.0553691521097513</v>
+        <v>0.05885100241342209</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.6593638358045</v>
+        <v>12.185309</v>
       </c>
       <c r="H6">
-        <v>11.6593638358045</v>
+        <v>36.555927</v>
       </c>
       <c r="I6">
-        <v>0.1637183452534694</v>
+        <v>0.1639811691142349</v>
       </c>
       <c r="J6">
-        <v>0.1637183452534694</v>
+        <v>0.1651175572641556</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.712189524746471</v>
+        <v>8.941585666666667</v>
       </c>
       <c r="N6">
-        <v>8.712189524746471</v>
+        <v>26.824757</v>
       </c>
       <c r="O6">
-        <v>0.04188009119425687</v>
+        <v>0.04172451604811986</v>
       </c>
       <c r="P6">
-        <v>0.04188009119425687</v>
+        <v>0.04455960914923559</v>
       </c>
       <c r="Q6">
-        <v>101.5785874755038</v>
+        <v>108.9559842983043</v>
       </c>
       <c r="R6">
-        <v>101.5785874755038</v>
+        <v>980.603858684739</v>
       </c>
       <c r="S6">
-        <v>0.006856539229388128</v>
+        <v>0.006842034922296352</v>
       </c>
       <c r="T6">
-        <v>0.006856539229388128</v>
+        <v>0.007357573815367297</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.6593638358045</v>
+        <v>12.185309</v>
       </c>
       <c r="H7">
-        <v>11.6593638358045</v>
+        <v>36.555927</v>
       </c>
       <c r="I7">
-        <v>0.1637183452534694</v>
+        <v>0.1639811691142349</v>
       </c>
       <c r="J7">
-        <v>0.1637183452534694</v>
+        <v>0.1651175572641556</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.7757712054458</v>
+        <v>25.8970305</v>
       </c>
       <c r="N7">
-        <v>25.7757712054458</v>
+        <v>51.794061</v>
       </c>
       <c r="O7">
-        <v>0.1239058959427061</v>
+        <v>0.1208444570099069</v>
       </c>
       <c r="P7">
-        <v>0.1239058959427061</v>
+        <v>0.0860370557843885</v>
       </c>
       <c r="Q7">
-        <v>300.5290946327457</v>
+        <v>315.5633188249245</v>
       </c>
       <c r="R7">
-        <v>300.5290946327457</v>
+        <v>1893.379912949547</v>
       </c>
       <c r="S7">
-        <v>0.02028566825088841</v>
+        <v>0.01981621534145943</v>
       </c>
       <c r="T7">
-        <v>0.02028566825088841</v>
+        <v>0.01420622848531811</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>23.4860072816911</v>
+        <v>24.116259</v>
       </c>
       <c r="H8">
-        <v>23.4860072816911</v>
+        <v>72.348777</v>
       </c>
       <c r="I8">
-        <v>0.3297855957596581</v>
+        <v>0.3245393568174341</v>
       </c>
       <c r="J8">
-        <v>0.3297855957596581</v>
+        <v>0.3267884118843197</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.3900529084358</v>
+        <v>15.0074085</v>
       </c>
       <c r="N8">
-        <v>13.3900529084358</v>
+        <v>30.014817</v>
       </c>
       <c r="O8">
-        <v>0.06436690057170613</v>
+        <v>0.07002973299615803</v>
       </c>
       <c r="P8">
-        <v>0.06436690057170613</v>
+        <v>0.04985873736734435</v>
       </c>
       <c r="Q8">
-        <v>314.4788801097523</v>
+        <v>361.9225503048015</v>
       </c>
       <c r="R8">
-        <v>314.4788801097523</v>
+        <v>2171.535301828809</v>
       </c>
       <c r="S8">
-        <v>0.02122727665224278</v>
+        <v>0.02272740450466977</v>
       </c>
       <c r="T8">
-        <v>0.02122727665224278</v>
+        <v>0.01629325760283185</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>23.4860072816911</v>
+        <v>24.116259</v>
       </c>
       <c r="H9">
-        <v>23.4860072816911</v>
+        <v>72.348777</v>
       </c>
       <c r="I9">
-        <v>0.3297855957596581</v>
+        <v>0.3245393568174341</v>
       </c>
       <c r="J9">
-        <v>0.3297855957596581</v>
+        <v>0.3267884118843197</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>29.0642472037446</v>
+        <v>30.578114</v>
       </c>
       <c r="N9">
-        <v>29.0642472037446</v>
+        <v>91.734342</v>
       </c>
       <c r="O9">
-        <v>0.1397138250870031</v>
+        <v>0.1426880036580654</v>
       </c>
       <c r="P9">
-        <v>0.1397138250870031</v>
+        <v>0.1523833533732405</v>
       </c>
       <c r="Q9">
-        <v>682.6031214640159</v>
+        <v>737.4297169555259</v>
       </c>
       <c r="R9">
-        <v>682.6031214640159</v>
+        <v>6636.867452599734</v>
       </c>
       <c r="S9">
-        <v>0.04607560704217799</v>
+        <v>0.04630787293275222</v>
       </c>
       <c r="T9">
-        <v>0.04607560704217799</v>
+        <v>0.04979711404644835</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>23.4860072816911</v>
+        <v>24.116259</v>
       </c>
       <c r="H10">
-        <v>23.4860072816911</v>
+        <v>72.348777</v>
       </c>
       <c r="I10">
-        <v>0.3297855957596581</v>
+        <v>0.3245393568174341</v>
       </c>
       <c r="J10">
-        <v>0.3297855957596581</v>
+        <v>0.3267884118843197</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>60.7305029151054</v>
+        <v>62.35535266666667</v>
       </c>
       <c r="N10">
-        <v>60.7305029151054</v>
+        <v>187.066058</v>
       </c>
       <c r="O10">
-        <v>0.2919356831176961</v>
+        <v>0.2909715357003801</v>
       </c>
       <c r="P10">
-        <v>0.2919356831176961</v>
+        <v>0.3107424395146705</v>
       </c>
       <c r="Q10">
-        <v>1426.317033684928</v>
+        <v>1503.777834945674</v>
       </c>
       <c r="R10">
-        <v>1426.317033684928</v>
+        <v>13534.00051451107</v>
       </c>
       <c r="S10">
-        <v>0.09627618318047217</v>
+        <v>0.09443171504838241</v>
       </c>
       <c r="T10">
-        <v>0.09627618318047217</v>
+        <v>0.1015470283140584</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>23.4860072816911</v>
+        <v>24.116259</v>
       </c>
       <c r="H11">
-        <v>23.4860072816911</v>
+        <v>72.348777</v>
       </c>
       <c r="I11">
-        <v>0.3297855957596581</v>
+        <v>0.3245393568174341</v>
       </c>
       <c r="J11">
-        <v>0.3297855957596581</v>
+        <v>0.3267884118843197</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>70.3542313208229</v>
+        <v>71.521033</v>
       </c>
       <c r="N11">
-        <v>70.3542313208229</v>
+        <v>214.563099</v>
       </c>
       <c r="O11">
-        <v>0.3381976040866316</v>
+        <v>0.3337417545873698</v>
       </c>
       <c r="P11">
-        <v>0.3381976040866316</v>
+        <v>0.3564188048111206</v>
       </c>
       <c r="Q11">
-        <v>1652.339989098627</v>
+        <v>1724.819755775547</v>
       </c>
       <c r="R11">
-        <v>1652.339989098627</v>
+        <v>15523.37780197992</v>
       </c>
       <c r="S11">
-        <v>0.1115326983481988</v>
+        <v>0.1083123343769069</v>
       </c>
       <c r="T11">
-        <v>0.1115326983481988</v>
+        <v>0.1164735351899334</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>23.4860072816911</v>
+        <v>24.116259</v>
       </c>
       <c r="H12">
-        <v>23.4860072816911</v>
+        <v>72.348777</v>
       </c>
       <c r="I12">
-        <v>0.3297855957596581</v>
+        <v>0.3245393568174341</v>
       </c>
       <c r="J12">
-        <v>0.3297855957596581</v>
+        <v>0.3267884118843197</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.712189524746471</v>
+        <v>8.941585666666667</v>
       </c>
       <c r="N12">
-        <v>8.712189524746471</v>
+        <v>26.824757</v>
       </c>
       <c r="O12">
-        <v>0.04188009119425687</v>
+        <v>0.04172451604811986</v>
       </c>
       <c r="P12">
-        <v>0.04188009119425687</v>
+        <v>0.04455960914923559</v>
       </c>
       <c r="Q12">
-        <v>204.6145466176685</v>
+        <v>215.637595808021</v>
       </c>
       <c r="R12">
-        <v>204.6145466176685</v>
+        <v>1940.738362272189</v>
       </c>
       <c r="S12">
-        <v>0.01381145082496681</v>
+        <v>0.01354124760177552</v>
       </c>
       <c r="T12">
-        <v>0.01381145082496681</v>
+        <v>0.0145615639080647</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>23.4860072816911</v>
+        <v>24.116259</v>
       </c>
       <c r="H13">
-        <v>23.4860072816911</v>
+        <v>72.348777</v>
       </c>
       <c r="I13">
-        <v>0.3297855957596581</v>
+        <v>0.3245393568174341</v>
       </c>
       <c r="J13">
-        <v>0.3297855957596581</v>
+        <v>0.3267884118843197</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>25.7757712054458</v>
+        <v>25.8970305</v>
       </c>
       <c r="N13">
-        <v>25.7757712054458</v>
+        <v>51.794061</v>
       </c>
       <c r="O13">
-        <v>0.1239058959427061</v>
+        <v>0.1208444570099069</v>
       </c>
       <c r="P13">
-        <v>0.1239058959427061</v>
+        <v>0.0860370557843885</v>
       </c>
       <c r="Q13">
-        <v>605.3699502223038</v>
+        <v>624.5394948688995</v>
       </c>
       <c r="R13">
-        <v>605.3699502223038</v>
+        <v>3747.236969213397</v>
       </c>
       <c r="S13">
-        <v>0.04086237971159954</v>
+        <v>0.03921878235294723</v>
       </c>
       <c r="T13">
-        <v>0.04086237971159954</v>
+        <v>0.02811591282298294</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>34.5371243225789</v>
+        <v>36.10462733333333</v>
       </c>
       <c r="H14">
-        <v>34.5371243225789</v>
+        <v>108.313882</v>
       </c>
       <c r="I14">
-        <v>0.4849630668992511</v>
+        <v>0.4858702393639556</v>
       </c>
       <c r="J14">
-        <v>0.4849630668992511</v>
+        <v>0.4892373161166995</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>13.3900529084358</v>
+        <v>15.0074085</v>
       </c>
       <c r="N14">
-        <v>13.3900529084358</v>
+        <v>30.014817</v>
       </c>
       <c r="O14">
-        <v>0.06436690057170613</v>
+        <v>0.07002973299615803</v>
       </c>
       <c r="P14">
-        <v>0.06436690057170613</v>
+        <v>0.04985873736734435</v>
       </c>
       <c r="Q14">
-        <v>462.4539219845564</v>
+        <v>541.836891131599</v>
       </c>
       <c r="R14">
-        <v>462.4539219845564</v>
+        <v>3251.021346789594</v>
       </c>
       <c r="S14">
-        <v>0.03121556950805376</v>
+        <v>0.0340253631334372</v>
       </c>
       <c r="T14">
-        <v>0.03121556950805376</v>
+        <v>0.02439275485456695</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>34.5371243225789</v>
+        <v>36.10462733333333</v>
       </c>
       <c r="H15">
-        <v>34.5371243225789</v>
+        <v>108.313882</v>
       </c>
       <c r="I15">
-        <v>0.4849630668992511</v>
+        <v>0.4858702393639556</v>
       </c>
       <c r="J15">
-        <v>0.4849630668992511</v>
+        <v>0.4892373161166995</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>29.0642472037446</v>
+        <v>30.578114</v>
       </c>
       <c r="N15">
-        <v>29.0642472037446</v>
+        <v>91.734342</v>
       </c>
       <c r="O15">
-        <v>0.1397138250870031</v>
+        <v>0.1426880036580654</v>
       </c>
       <c r="P15">
-        <v>0.1397138250870031</v>
+        <v>0.1523833533732405</v>
       </c>
       <c r="Q15">
-        <v>1003.795519017893</v>
+        <v>1104.011410526183</v>
       </c>
       <c r="R15">
-        <v>1003.795519017893</v>
+        <v>9936.102694735644</v>
       </c>
       <c r="S15">
-        <v>0.06775604510241856</v>
+        <v>0.06932785449170921</v>
       </c>
       <c r="T15">
-        <v>0.06775604510241856</v>
+        <v>0.07455162282518679</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>21</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>34.5371243225789</v>
+        <v>36.10462733333333</v>
       </c>
       <c r="H16">
-        <v>34.5371243225789</v>
+        <v>108.313882</v>
       </c>
       <c r="I16">
-        <v>0.4849630668992511</v>
+        <v>0.4858702393639556</v>
       </c>
       <c r="J16">
-        <v>0.4849630668992511</v>
+        <v>0.4892373161166995</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>60.7305029151054</v>
+        <v>62.35535266666667</v>
       </c>
       <c r="N16">
-        <v>60.7305029151054</v>
+        <v>187.066058</v>
       </c>
       <c r="O16">
-        <v>0.2919356831176961</v>
+        <v>0.2909715357003801</v>
       </c>
       <c r="P16">
-        <v>0.2919356831176961</v>
+        <v>0.3107424395146705</v>
       </c>
       <c r="Q16">
-        <v>2097.456929351735</v>
+        <v>2251.316770268573</v>
       </c>
       <c r="R16">
-        <v>2097.456929351735</v>
+        <v>20261.85093241716</v>
       </c>
       <c r="S16">
-        <v>0.1415780242220858</v>
+        <v>0.1413744096988414</v>
       </c>
       <c r="T16">
-        <v>0.1415780242220858</v>
+        <v>0.1520267971117132</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>34.5371243225789</v>
+        <v>36.10462733333333</v>
       </c>
       <c r="H17">
-        <v>34.5371243225789</v>
+        <v>108.313882</v>
       </c>
       <c r="I17">
-        <v>0.4849630668992511</v>
+        <v>0.4858702393639556</v>
       </c>
       <c r="J17">
-        <v>0.4849630668992511</v>
+        <v>0.4892373161166995</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>70.3542313208229</v>
+        <v>71.521033</v>
       </c>
       <c r="N17">
-        <v>70.3542313208229</v>
+        <v>214.563099</v>
       </c>
       <c r="O17">
-        <v>0.3381976040866316</v>
+        <v>0.3337417545873698</v>
       </c>
       <c r="P17">
-        <v>0.3381976040866316</v>
+        <v>0.3564188048111206</v>
       </c>
       <c r="Q17">
-        <v>2429.832833746735</v>
+        <v>2582.240242960036</v>
       </c>
       <c r="R17">
-        <v>2429.832833746735</v>
+        <v>23240.16218664032</v>
       </c>
       <c r="S17">
-        <v>0.1640133472958316</v>
+        <v>0.1621551861871119</v>
       </c>
       <c r="T17">
-        <v>0.1640133472958316</v>
+        <v>0.1743733794793144</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>34.5371243225789</v>
+        <v>36.10462733333333</v>
       </c>
       <c r="H18">
-        <v>34.5371243225789</v>
+        <v>108.313882</v>
       </c>
       <c r="I18">
-        <v>0.4849630668992511</v>
+        <v>0.4858702393639556</v>
       </c>
       <c r="J18">
-        <v>0.4849630668992511</v>
+        <v>0.4892373161166995</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>8.712189524746471</v>
+        <v>8.941585666666667</v>
       </c>
       <c r="N18">
-        <v>8.712189524746471</v>
+        <v>26.824757</v>
       </c>
       <c r="O18">
-        <v>0.04188009119425687</v>
+        <v>0.04172451604811986</v>
       </c>
       <c r="P18">
-        <v>0.04188009119425687</v>
+        <v>0.04455960914923559</v>
       </c>
       <c r="Q18">
-        <v>300.8939727380384</v>
+        <v>322.8326182640749</v>
       </c>
       <c r="R18">
-        <v>300.8939727380384</v>
+        <v>2905.493564376674</v>
       </c>
       <c r="S18">
-        <v>0.02031029746758713</v>
+        <v>0.0202727005996452</v>
       </c>
       <c r="T18">
-        <v>0.02031029746758713</v>
+        <v>0.02180022358738115</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>34.5371243225789</v>
+        <v>36.10462733333333</v>
       </c>
       <c r="H19">
-        <v>34.5371243225789</v>
+        <v>108.313882</v>
       </c>
       <c r="I19">
-        <v>0.4849630668992511</v>
+        <v>0.4858702393639556</v>
       </c>
       <c r="J19">
-        <v>0.4849630668992511</v>
+        <v>0.4892373161166995</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>25.7757712054458</v>
+        <v>25.8970305</v>
       </c>
       <c r="N19">
-        <v>25.7757712054458</v>
+        <v>51.794061</v>
       </c>
       <c r="O19">
-        <v>0.1239058959427061</v>
+        <v>0.1208444570099069</v>
       </c>
       <c r="P19">
-        <v>0.1239058959427061</v>
+        <v>0.0860370557843885</v>
       </c>
       <c r="Q19">
-        <v>890.2210146328309</v>
+        <v>935.002635242467</v>
       </c>
       <c r="R19">
-        <v>890.2210146328309</v>
+        <v>5610.015811454802</v>
       </c>
       <c r="S19">
-        <v>0.06008978330327424</v>
+        <v>0.0587147252532107</v>
       </c>
       <c r="T19">
-        <v>0.06008978330327424</v>
+        <v>0.04209253825853699</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>1.53349332253747</v>
+        <v>0.3687476666666667</v>
       </c>
       <c r="H20">
-        <v>1.53349332253747</v>
+        <v>1.106243</v>
       </c>
       <c r="I20">
-        <v>0.02153299208762157</v>
+        <v>0.00496234223425489</v>
       </c>
       <c r="J20">
-        <v>0.02153299208762157</v>
+        <v>0.004996731225023272</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>13.3900529084358</v>
+        <v>15.0074085</v>
       </c>
       <c r="N20">
-        <v>13.3900529084358</v>
+        <v>30.014817</v>
       </c>
       <c r="O20">
-        <v>0.06436690057170613</v>
+        <v>0.07002973299615803</v>
       </c>
       <c r="P20">
-        <v>0.06436690057170613</v>
+        <v>0.04985873736734435</v>
       </c>
       <c r="Q20">
-        <v>20.53355672350973</v>
+        <v>5.533946867088501</v>
       </c>
       <c r="R20">
-        <v>20.53355672350973</v>
+        <v>33.203681202531</v>
       </c>
       <c r="S20">
-        <v>0.001386011960715272</v>
+        <v>0.0003475115017004282</v>
       </c>
       <c r="T20">
-        <v>0.001386011960715272</v>
+        <v>0.0002491307098436441</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>20</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>1.53349332253747</v>
+        <v>0.3687476666666667</v>
       </c>
       <c r="H21">
-        <v>1.53349332253747</v>
+        <v>1.106243</v>
       </c>
       <c r="I21">
-        <v>0.02153299208762157</v>
+        <v>0.00496234223425489</v>
       </c>
       <c r="J21">
-        <v>0.02153299208762157</v>
+        <v>0.004996731225023272</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>29.0642472037446</v>
+        <v>30.578114</v>
       </c>
       <c r="N21">
-        <v>29.0642472037446</v>
+        <v>91.734342</v>
       </c>
       <c r="O21">
-        <v>0.1397138250870031</v>
+        <v>0.1426880036580654</v>
       </c>
       <c r="P21">
-        <v>0.1397138250870031</v>
+        <v>0.1523833533732405</v>
       </c>
       <c r="Q21">
-        <v>44.56982901152068</v>
+        <v>11.27560818856733</v>
       </c>
       <c r="R21">
-        <v>44.56982901152068</v>
+        <v>101.480473697106</v>
       </c>
       <c r="S21">
-        <v>0.003008456690129782</v>
+        <v>0.0007080667068739341</v>
       </c>
       <c r="T21">
-        <v>0.003008456690129782</v>
+        <v>0.0007614186599738261</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>1.53349332253747</v>
+        <v>0.3687476666666667</v>
       </c>
       <c r="H22">
-        <v>1.53349332253747</v>
+        <v>1.106243</v>
       </c>
       <c r="I22">
-        <v>0.02153299208762157</v>
+        <v>0.00496234223425489</v>
       </c>
       <c r="J22">
-        <v>0.02153299208762157</v>
+        <v>0.004996731225023272</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>60.7305029151054</v>
+        <v>62.35535266666667</v>
       </c>
       <c r="N22">
-        <v>60.7305029151054</v>
+        <v>187.066058</v>
       </c>
       <c r="O22">
-        <v>0.2919356831176961</v>
+        <v>0.2909715357003801</v>
       </c>
       <c r="P22">
-        <v>0.2919356831176961</v>
+        <v>0.3107424395146705</v>
       </c>
       <c r="Q22">
-        <v>93.12982069465649</v>
+        <v>22.99339080001045</v>
       </c>
       <c r="R22">
-        <v>93.12982069465649</v>
+        <v>206.940517200094</v>
       </c>
       <c r="S22">
-        <v>0.006286248754667748</v>
+        <v>0.001443900340572</v>
       </c>
       <c r="T22">
-        <v>0.006286248754667748</v>
+        <v>0.001552696450462859</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
         <v>22</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>1.53349332253747</v>
+        <v>0.3687476666666667</v>
       </c>
       <c r="H23">
-        <v>1.53349332253747</v>
+        <v>1.106243</v>
       </c>
       <c r="I23">
-        <v>0.02153299208762157</v>
+        <v>0.00496234223425489</v>
       </c>
       <c r="J23">
-        <v>0.02153299208762157</v>
+        <v>0.004996731225023272</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>70.3542313208229</v>
+        <v>71.521033</v>
       </c>
       <c r="N23">
-        <v>70.3542313208229</v>
+        <v>214.563099</v>
       </c>
       <c r="O23">
-        <v>0.3381976040866316</v>
+        <v>0.3337417545873698</v>
       </c>
       <c r="P23">
-        <v>0.3381976040866316</v>
+        <v>0.3564188048111206</v>
       </c>
       <c r="Q23">
-        <v>107.8877439427385</v>
+        <v>26.37321403633967</v>
       </c>
       <c r="R23">
-        <v>107.8877439427385</v>
+        <v>237.358926327057</v>
       </c>
       <c r="S23">
-        <v>0.007282406332850011</v>
+        <v>0.001656140804123236</v>
       </c>
       <c r="T23">
-        <v>0.007282406332850011</v>
+        <v>0.001780928971185201</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>1.53349332253747</v>
+        <v>0.3687476666666667</v>
       </c>
       <c r="H24">
-        <v>1.53349332253747</v>
+        <v>1.106243</v>
       </c>
       <c r="I24">
-        <v>0.02153299208762157</v>
+        <v>0.00496234223425489</v>
       </c>
       <c r="J24">
-        <v>0.02153299208762157</v>
+        <v>0.004996731225023272</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>8.712189524746471</v>
+        <v>8.941585666666667</v>
       </c>
       <c r="N24">
-        <v>8.712189524746471</v>
+        <v>26.824757</v>
       </c>
       <c r="O24">
-        <v>0.04188009119425687</v>
+        <v>0.04172451604811986</v>
       </c>
       <c r="P24">
-        <v>0.04188009119425687</v>
+        <v>0.04455960914923559</v>
       </c>
       <c r="Q24">
-        <v>13.36008446087961</v>
+        <v>3.297188850883445</v>
       </c>
       <c r="R24">
-        <v>13.36008446087961</v>
+        <v>29.674699657951</v>
       </c>
       <c r="S24">
-        <v>0.000901803672314803</v>
+        <v>0.0002070513281894311</v>
       </c>
       <c r="T24">
-        <v>0.000901803672314803</v>
+        <v>0.0002226523904108181</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,433 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.3687476666666667</v>
+      </c>
+      <c r="H25">
+        <v>1.106243</v>
+      </c>
+      <c r="I25">
+        <v>0.00496234223425489</v>
+      </c>
+      <c r="J25">
+        <v>0.004996731225023272</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>25.8970305</v>
+      </c>
+      <c r="N25">
+        <v>51.794061</v>
+      </c>
+      <c r="O25">
+        <v>0.1208444570099069</v>
+      </c>
+      <c r="P25">
+        <v>0.0860370557843885</v>
+      </c>
+      <c r="Q25">
+        <v>9.549469570470501</v>
+      </c>
+      <c r="R25">
+        <v>57.296817422823</v>
+      </c>
+      <c r="S25">
+        <v>0.0005996715527958602</v>
+      </c>
+      <c r="T25">
+        <v>0.0004299040431469231</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.534254</v>
+      </c>
+      <c r="H26">
+        <v>3.068508</v>
+      </c>
+      <c r="I26">
+        <v>0.02064689247012049</v>
+      </c>
+      <c r="J26">
+        <v>0.01385998350980183</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>15.0074085</v>
+      </c>
+      <c r="N26">
+        <v>30.014817</v>
+      </c>
+      <c r="O26">
+        <v>0.07002973299615803</v>
+      </c>
+      <c r="P26">
+        <v>0.04985873736734435</v>
+      </c>
+      <c r="Q26">
+        <v>23.025176520759</v>
+      </c>
+      <c r="R26">
+        <v>92.100706083036</v>
+      </c>
+      <c r="S26">
+        <v>0.001445896366882923</v>
+      </c>
+      <c r="T26">
+        <v>0.000691041277730933</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1.534254</v>
+      </c>
+      <c r="H27">
+        <v>3.068508</v>
+      </c>
+      <c r="I27">
+        <v>0.02064689247012049</v>
+      </c>
+      <c r="J27">
+        <v>0.01385998350980183</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>30.578114</v>
+      </c>
+      <c r="N27">
+        <v>91.734342</v>
+      </c>
+      <c r="O27">
+        <v>0.1426880036580654</v>
+      </c>
+      <c r="P27">
+        <v>0.1523833533732405</v>
+      </c>
+      <c r="Q27">
+        <v>46.914593716956</v>
+      </c>
+      <c r="R27">
+        <v>281.487562301736</v>
+      </c>
+      <c r="S27">
+        <v>0.002946063868304235</v>
+      </c>
+      <c r="T27">
+        <v>0.002112030764921418</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1.534254</v>
+      </c>
+      <c r="H28">
+        <v>3.068508</v>
+      </c>
+      <c r="I28">
+        <v>0.02064689247012049</v>
+      </c>
+      <c r="J28">
+        <v>0.01385998350980183</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>62.35535266666667</v>
+      </c>
+      <c r="N28">
+        <v>187.066058</v>
+      </c>
+      <c r="O28">
+        <v>0.2909715357003801</v>
+      </c>
+      <c r="P28">
+        <v>0.3107424395146705</v>
+      </c>
+      <c r="Q28">
+        <v>95.668949250244</v>
+      </c>
+      <c r="R28">
+        <v>574.013695501464</v>
+      </c>
+      <c r="S28">
+        <v>0.006007658009471573</v>
+      </c>
+      <c r="T28">
+        <v>0.004306885087468926</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1.534254</v>
+      </c>
+      <c r="H29">
+        <v>3.068508</v>
+      </c>
+      <c r="I29">
+        <v>0.02064689247012049</v>
+      </c>
+      <c r="J29">
+        <v>0.01385998350980183</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>71.521033</v>
+      </c>
+      <c r="N29">
+        <v>214.563099</v>
+      </c>
+      <c r="O29">
+        <v>0.3337417545873698</v>
+      </c>
+      <c r="P29">
+        <v>0.3564188048111206</v>
+      </c>
+      <c r="Q29">
+        <v>109.731430964382</v>
+      </c>
+      <c r="R29">
+        <v>658.388585786292</v>
+      </c>
+      <c r="S29">
+        <v>0.006890730119754765</v>
+      </c>
+      <c r="T29">
+        <v>0.004939958757265409</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>1.53349332253747</v>
-      </c>
-      <c r="H25">
-        <v>1.53349332253747</v>
-      </c>
-      <c r="I25">
-        <v>0.02153299208762157</v>
-      </c>
-      <c r="J25">
-        <v>0.02153299208762157</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>25.7757712054458</v>
-      </c>
-      <c r="N25">
-        <v>25.7757712054458</v>
-      </c>
-      <c r="O25">
-        <v>0.1239058959427061</v>
-      </c>
-      <c r="P25">
-        <v>0.1239058959427061</v>
-      </c>
-      <c r="Q25">
-        <v>39.52697302680473</v>
-      </c>
-      <c r="R25">
-        <v>39.52697302680473</v>
-      </c>
-      <c r="S25">
-        <v>0.002668064676943953</v>
-      </c>
-      <c r="T25">
-        <v>0.002668064676943953</v>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1.534254</v>
+      </c>
+      <c r="H30">
+        <v>3.068508</v>
+      </c>
+      <c r="I30">
+        <v>0.02064689247012049</v>
+      </c>
+      <c r="J30">
+        <v>0.01385998350980183</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>8.941585666666667</v>
+      </c>
+      <c r="N30">
+        <v>26.824757</v>
+      </c>
+      <c r="O30">
+        <v>0.04172451604811986</v>
+      </c>
+      <c r="P30">
+        <v>0.04455960914923559</v>
+      </c>
+      <c r="Q30">
+        <v>13.718663575426</v>
+      </c>
+      <c r="R30">
+        <v>82.31198145255601</v>
+      </c>
+      <c r="S30">
+        <v>0.0008614815962133473</v>
+      </c>
+      <c r="T30">
+        <v>0.0006175954480116201</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1.534254</v>
+      </c>
+      <c r="H31">
+        <v>3.068508</v>
+      </c>
+      <c r="I31">
+        <v>0.02064689247012049</v>
+      </c>
+      <c r="J31">
+        <v>0.01385998350980183</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>25.8970305</v>
+      </c>
+      <c r="N31">
+        <v>51.794061</v>
+      </c>
+      <c r="O31">
+        <v>0.1208444570099069</v>
+      </c>
+      <c r="P31">
+        <v>0.0860370557843885</v>
+      </c>
+      <c r="Q31">
+        <v>39.732622632747</v>
+      </c>
+      <c r="R31">
+        <v>158.930490530988</v>
+      </c>
+      <c r="S31">
+        <v>0.002495062509493645</v>
+      </c>
+      <c r="T31">
+        <v>0.001192472174403525</v>
       </c>
     </row>
   </sheetData>
